--- a/DDC/Config.xlsx
+++ b/DDC/Config.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="183">
   <si>
     <t>Modèle</t>
   </si>
@@ -74,10 +74,10 @@
     <t>IPHONE6</t>
   </si>
   <si>
-    <t>IPHONE6S+</t>
-  </si>
-  <si>
-    <t>IPHONE6+</t>
+    <t>IPHONE6SPLUS</t>
+  </si>
+  <si>
+    <t>IPHONE6PLUS</t>
   </si>
   <si>
     <t>IPHONE8</t>
@@ -86,10 +86,10 @@
     <t>IPHONE7</t>
   </si>
   <si>
-    <t>IPHONE8+</t>
-  </si>
-  <si>
-    <t>IPHONE7+</t>
+    <t>IPHONE8PLUS</t>
+  </si>
+  <si>
+    <t>IPHONE7PLUS</t>
   </si>
   <si>
     <t>IPOD4</t>
@@ -104,13 +104,16 @@
     <t>Samsung</t>
   </si>
   <si>
+    <t>SAMSUNGGALAXYS5</t>
+  </si>
+  <si>
     <t>SAMSUNGGALAXYS6</t>
   </si>
   <si>
     <t>SAMSUNGGALAXYS6EDGE</t>
   </si>
   <si>
-    <t>SAMSUNGGALAXYS6EDGE+</t>
+    <t>SAMSUNGGALAXYS6EDGEPLUS</t>
   </si>
   <si>
     <t>SAMSUNGGALAXYS7</t>
@@ -122,13 +125,13 @@
     <t>SAMSUNGGALAXYS8</t>
   </si>
   <si>
-    <t>SAMSUNGGALAXYS8+</t>
+    <t>SAMSUNGGALAXYS8PLUS</t>
   </si>
   <si>
     <t>SAMSUNGGALAXYS9</t>
   </si>
   <si>
-    <t>SAMSUNGGALAXYS9+</t>
+    <t>SAMSUNGGALAXYS9PLUS</t>
   </si>
   <si>
     <t>SAMSUNGGALAXYS10</t>
@@ -137,7 +140,7 @@
     <t>SAMSUNGGALAXYS10E</t>
   </si>
   <si>
-    <t>SAMSUNGGALAXYS10+</t>
+    <t>SAMSUNGGALAXYS10PLUS</t>
   </si>
   <si>
     <t>SAMSUNGGALAXYA3</t>
@@ -164,7 +167,7 @@
     <t>SAMSUNGGALAXYA62018</t>
   </si>
   <si>
-    <t>SAMSUNGGALAXYA6+2018</t>
+    <t>SAMSUNGGALAXYA6PLUS2018</t>
   </si>
   <si>
     <t>SAMSUNGGALAXYA7</t>
@@ -185,7 +188,7 @@
     <t>SAMSUNGGALAXYA82018</t>
   </si>
   <si>
-    <t>SAMSUNGGALAXYA8+2018</t>
+    <t>SAMSUNGGALAXYA8PLUS2018</t>
   </si>
   <si>
     <t>SAMSUNGGALAXYA9</t>
@@ -242,7 +245,7 @@
     <t>SAMSUNGGALAXYJ42018</t>
   </si>
   <si>
-    <t>SAMSUNGGALAXYJ4+2018</t>
+    <t>SAMSUNGGALAXYJ4PLUS2018</t>
   </si>
   <si>
     <t>SAMSUNGGALAXYJ5</t>
@@ -260,10 +263,10 @@
     <t>SAMSUNGGALAXYJ6</t>
   </si>
   <si>
-    <t>SAMSUNGGALAXYJ6+</t>
-  </si>
-  <si>
-    <t>SAMSUNGGALAXYJ6+2018</t>
+    <t>SAMSUNGGALAXYJ6PLUS</t>
+  </si>
+  <si>
+    <t>SAMSUNGGALAXYJ6PLUS2018</t>
   </si>
   <si>
     <t>SAMSUNGGALAXYJ7</t>
@@ -290,7 +293,7 @@
     <t>SAMSUNGGALAXYNOTE10</t>
   </si>
   <si>
-    <t>SAMSUNGGALAXYNOTE10+</t>
+    <t>SAMSUNGGALAXYNOTE10PLUS</t>
   </si>
   <si>
     <t>SAMSUNGGALAXYNOTE10PRO</t>
@@ -317,7 +320,7 @@
     <t>HUAWEIP9LITE</t>
   </si>
   <si>
-    <t>HUAWEIP9+</t>
+    <t>HUAWEIP9PLUS</t>
   </si>
   <si>
     <t>HUAWEIP10</t>
@@ -518,7 +521,7 @@
     <t>XIAOMIREDMINOTE5</t>
   </si>
   <si>
-    <t>XIAOMIREDMI5+</t>
+    <t>XIAOMIREDMI5PLUS</t>
   </si>
   <si>
     <t>XIAOMIREDMI6</t>
@@ -558,6 +561,9 @@
   </si>
   <si>
     <t>SAMSUNGXIAOMI A3</t>
+  </si>
+  <si>
+    <t>ASUSXA1</t>
   </si>
 </sst>
 </file>
@@ -661,7 +667,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -693,9 +699,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="10" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -997,20 +1000,20 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J168"/>
+  <dimension ref="A1:J170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.140625" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.1428571428571" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="35.85546875" customWidth="true" style="0"/>
-    <col min="6" max="6" width="17.140625" customWidth="true" style="0"/>
-    <col min="7" max="7" width="19.28515625" customWidth="true" style="0"/>
-    <col min="9" max="9" width="19.42578125" customWidth="true" style="0"/>
-    <col min="10" max="10" width="19.28515625" customWidth="true" style="0"/>
+    <col min="1" max="1" width="22.142857142857" customWidth="true" style="0"/>
+    <col min="2" max="2" width="35.857142857143" customWidth="true" style="0"/>
+    <col min="6" max="6" width="17.142857142857" customWidth="true" style="0"/>
+    <col min="7" max="7" width="19.285714285714" customWidth="true" style="0"/>
+    <col min="9" max="9" width="19.428571428571" customWidth="true" style="0"/>
+    <col min="10" max="10" width="19.285714285714" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1295,38 +1298,36 @@
       <c r="A26" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="4">
-        <v>134</v>
-      </c>
-      <c r="D26" s="4">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="11"/>
+      <c r="C26" s="3">
+        <v>142</v>
+      </c>
+      <c r="D26" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" customHeight="1" ht="15.75">
       <c r="B27" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C27" s="4">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D27" s="4">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="11"/>
       <c r="B28" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C28" s="4">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D28" s="4">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1334,10 +1335,10 @@
         <v>32</v>
       </c>
       <c r="C29" s="4">
-        <v>132</v>
+        <v>150</v>
       </c>
       <c r="D29" s="4">
-        <v>59</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1345,10 +1346,10 @@
         <v>33</v>
       </c>
       <c r="C30" s="4">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="D30" s="4">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1356,10 +1357,10 @@
         <v>34</v>
       </c>
       <c r="C31" s="4">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D31" s="4">
-        <v>59</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1367,10 +1368,10 @@
         <v>35</v>
       </c>
       <c r="C32" s="4">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D32" s="4">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1378,10 +1379,10 @@
         <v>36</v>
       </c>
       <c r="C33" s="4">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="D33" s="4">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1389,10 +1390,10 @@
         <v>37</v>
       </c>
       <c r="C34" s="4">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="D34" s="4">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1400,10 +1401,10 @@
         <v>38</v>
       </c>
       <c r="C35" s="4">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="D35" s="4">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1411,10 +1412,10 @@
         <v>39</v>
       </c>
       <c r="C36" s="4">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D36" s="4">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1422,10 +1423,10 @@
         <v>40</v>
       </c>
       <c r="C37" s="4">
-        <v>148</v>
+        <v>130</v>
       </c>
       <c r="D37" s="4">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1433,10 +1434,10 @@
         <v>41</v>
       </c>
       <c r="C38" s="4">
-        <v>120</v>
+        <v>148</v>
       </c>
       <c r="D38" s="4">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1444,10 +1445,10 @@
         <v>42</v>
       </c>
       <c r="C39" s="4">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D39" s="4">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1455,10 +1456,10 @@
         <v>43</v>
       </c>
       <c r="C40" s="4">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D40" s="4">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1466,10 +1467,10 @@
         <v>44</v>
       </c>
       <c r="C41" s="4">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D41" s="4">
-        <v>610</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1477,10 +1478,10 @@
         <v>45</v>
       </c>
       <c r="C42" s="4">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D42" s="4">
-        <v>66</v>
+        <v>610</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1488,10 +1489,10 @@
         <v>46</v>
       </c>
       <c r="C43" s="4">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D43" s="4">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1499,10 +1500,10 @@
         <v>47</v>
       </c>
       <c r="C44" s="4">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="D44" s="4">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -1510,10 +1511,10 @@
         <v>48</v>
       </c>
       <c r="C45" s="4">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="D45" s="4">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -1521,10 +1522,10 @@
         <v>49</v>
       </c>
       <c r="C46" s="4">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="D46" s="4">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -1532,10 +1533,10 @@
         <v>50</v>
       </c>
       <c r="C47" s="4">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="D47" s="4">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -1543,10 +1544,10 @@
         <v>51</v>
       </c>
       <c r="C48" s="4">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D48" s="4">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -1554,10 +1555,10 @@
         <v>52</v>
       </c>
       <c r="C49" s="4">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D49" s="4">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -1565,10 +1566,10 @@
         <v>53</v>
       </c>
       <c r="C50" s="4">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D50" s="4">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -1587,10 +1588,10 @@
         <v>55</v>
       </c>
       <c r="C52" s="4">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="D52" s="4">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -1598,10 +1599,10 @@
         <v>56</v>
       </c>
       <c r="C53" s="4">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="D53" s="4">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -1609,30 +1610,30 @@
         <v>57</v>
       </c>
       <c r="C54" s="4">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D54" s="4">
-        <v>75</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G54" s="4">
-        <v>147</v>
-      </c>
-      <c r="H54" s="4">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="B55" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" s="4">
+        <v>155</v>
+      </c>
+      <c r="D55" s="4">
+        <v>75</v>
+      </c>
+      <c r="F55" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C55" s="4">
-        <v>152</v>
-      </c>
-      <c r="D55" s="4">
-        <v>74</v>
+      <c r="G55" s="4">
+        <v>147</v>
+      </c>
+      <c r="H55" s="4">
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -1640,10 +1641,10 @@
         <v>60</v>
       </c>
       <c r="C56" s="4">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D56" s="4">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -1662,10 +1663,10 @@
         <v>62</v>
       </c>
       <c r="C58" s="4">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="D58" s="4">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -1673,10 +1674,10 @@
         <v>63</v>
       </c>
       <c r="C59" s="4">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D59" s="4">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -1684,10 +1685,10 @@
         <v>64</v>
       </c>
       <c r="C60" s="4">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="D60" s="4">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -1695,10 +1696,10 @@
         <v>65</v>
       </c>
       <c r="C61" s="4">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D61" s="4">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -1706,10 +1707,10 @@
         <v>66</v>
       </c>
       <c r="C62" s="4">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D62" s="4">
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -1717,10 +1718,10 @@
         <v>67</v>
       </c>
       <c r="C63" s="4">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="D63" s="4">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -1739,10 +1740,10 @@
         <v>69</v>
       </c>
       <c r="C65" s="4">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="D65" s="4">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -1761,10 +1762,10 @@
         <v>71</v>
       </c>
       <c r="C67" s="4">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D67" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -1772,10 +1773,10 @@
         <v>72</v>
       </c>
       <c r="C68" s="4">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D68" s="4">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -1783,10 +1784,10 @@
         <v>73</v>
       </c>
       <c r="C69" s="4">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D69" s="4">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -1794,10 +1795,10 @@
         <v>74</v>
       </c>
       <c r="C70" s="4">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D70" s="4">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -1805,10 +1806,10 @@
         <v>75</v>
       </c>
       <c r="C71" s="4">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="D71" s="4">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -1816,10 +1817,10 @@
         <v>76</v>
       </c>
       <c r="C72" s="4">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="D72" s="4">
-        <v>58</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -1838,10 +1839,10 @@
         <v>78</v>
       </c>
       <c r="C74" s="4">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D74" s="4">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -1849,10 +1850,10 @@
         <v>79</v>
       </c>
       <c r="C75" s="4">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D75" s="4">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -1860,10 +1861,10 @@
         <v>80</v>
       </c>
       <c r="C76" s="4">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D76" s="4">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -1871,10 +1872,10 @@
         <v>81</v>
       </c>
       <c r="C77" s="4">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="D77" s="4">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -1893,7 +1894,7 @@
         <v>83</v>
       </c>
       <c r="C79" s="4">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="D79" s="4">
         <v>70</v>
@@ -1915,10 +1916,10 @@
         <v>85</v>
       </c>
       <c r="C81" s="4">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D81" s="4">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -1926,10 +1927,10 @@
         <v>86</v>
       </c>
       <c r="C82" s="4">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D82" s="4">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -1937,10 +1938,10 @@
         <v>87</v>
       </c>
       <c r="C83" s="4">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D83" s="4">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -1948,10 +1949,10 @@
         <v>88</v>
       </c>
       <c r="C84" s="4">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D84" s="4">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -1959,21 +1960,21 @@
         <v>89</v>
       </c>
       <c r="C85" s="4">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D85" s="4">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" customHeight="1" ht="15.75">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="B86" s="4" t="s">
         <v>90</v>
       </c>
       <c r="C86" s="4">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D86" s="4">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="87" spans="1:10" customHeight="1" ht="15.75">
@@ -1981,10 +1982,10 @@
         <v>91</v>
       </c>
       <c r="C87" s="4">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D87" s="4">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="88" spans="1:10" customHeight="1" ht="15.75">
@@ -1992,38 +1993,38 @@
         <v>92</v>
       </c>
       <c r="C88" s="4">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="D88" s="4">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" customHeight="1" ht="15.75">
       <c r="B89" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C89" s="4">
+        <v>169</v>
+      </c>
+      <c r="D89" s="4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="B90" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C90" s="4">
         <v>134</v>
       </c>
-      <c r="D89" s="4">
+      <c r="D90" s="4">
         <v>64</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
-      <c r="A90" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B90" s="5" t="s">
+    <row r="91" spans="1:10">
+      <c r="A91" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C90" s="5">
-        <v>139</v>
-      </c>
-      <c r="D90" s="5">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10">
       <c r="B91" s="5" t="s">
         <v>96</v>
       </c>
@@ -2039,10 +2040,10 @@
         <v>97</v>
       </c>
       <c r="C92" s="5">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D92" s="5">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -2050,10 +2051,10 @@
         <v>98</v>
       </c>
       <c r="C93" s="5">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="D93" s="5">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -2061,10 +2062,10 @@
         <v>99</v>
       </c>
       <c r="C94" s="5">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D94" s="5">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -2083,10 +2084,10 @@
         <v>101</v>
       </c>
       <c r="C96" s="5">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D96" s="5">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -2094,10 +2095,10 @@
         <v>102</v>
       </c>
       <c r="C97" s="5">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D97" s="5">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -2105,10 +2106,10 @@
         <v>103</v>
       </c>
       <c r="C98" s="5">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D98" s="5">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -2116,10 +2117,10 @@
         <v>104</v>
       </c>
       <c r="C99" s="5">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D99" s="5">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -2127,29 +2128,29 @@
         <v>105</v>
       </c>
       <c r="C100" s="5">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D100" s="5">
-        <v>65</v>
-      </c>
-      <c r="G100" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="H100" s="5">
-        <v>142</v>
-      </c>
-      <c r="I100" s="5">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="101" spans="1:10">
       <c r="B101" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C101" s="5">
+        <v>142</v>
+      </c>
+      <c r="D101" s="5">
+        <v>65</v>
+      </c>
+      <c r="G101" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C101" s="5">
-        <v>139</v>
-      </c>
-      <c r="D101" s="5">
+      <c r="H101" s="5">
+        <v>142</v>
+      </c>
+      <c r="I101" s="5">
         <v>63</v>
       </c>
     </row>
@@ -2158,7 +2159,7 @@
         <v>108</v>
       </c>
       <c r="C102" s="5">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D102" s="5">
         <v>63</v>
@@ -2169,10 +2170,10 @@
         <v>109</v>
       </c>
       <c r="C103" s="5">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D103" s="5">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -2180,10 +2181,10 @@
         <v>110</v>
       </c>
       <c r="C104" s="5">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="D104" s="5">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -2191,10 +2192,10 @@
         <v>111</v>
       </c>
       <c r="C105" s="5">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="D105" s="5">
-        <v>83</v>
+        <v>63</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -2202,10 +2203,10 @@
         <v>112</v>
       </c>
       <c r="C106" s="5">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="D106" s="5">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -2213,10 +2214,10 @@
         <v>113</v>
       </c>
       <c r="C107" s="5">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D107" s="5">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -2224,10 +2225,10 @@
         <v>114</v>
       </c>
       <c r="C108" s="5">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D108" s="5">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -2235,21 +2236,21 @@
         <v>115</v>
       </c>
       <c r="C109" s="5">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D109" s="5">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" customHeight="1" ht="15.75">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="B110" s="5" t="s">
         <v>116</v>
       </c>
       <c r="C110" s="5">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D110" s="5">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="111" spans="1:10" customHeight="1" ht="15.75">
@@ -2257,21 +2258,21 @@
         <v>117</v>
       </c>
       <c r="C111" s="5">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D111" s="5">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" customHeight="1" ht="15.75">
       <c r="B112" s="5" t="s">
         <v>118</v>
       </c>
       <c r="C112" s="5">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D112" s="5">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -2279,10 +2280,10 @@
         <v>119</v>
       </c>
       <c r="C113" s="5">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D113" s="5">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -2293,7 +2294,7 @@
         <v>142</v>
       </c>
       <c r="D114" s="5">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -2301,10 +2302,10 @@
         <v>121</v>
       </c>
       <c r="C115" s="5">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D115" s="5">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="116" spans="1:10">
@@ -2312,10 +2313,10 @@
         <v>122</v>
       </c>
       <c r="C116" s="5">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="D116" s="5">
-        <v>60</v>
+        <v>73</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -2323,10 +2324,10 @@
         <v>123</v>
       </c>
       <c r="C117" s="5">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D117" s="5">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -2334,10 +2335,10 @@
         <v>124</v>
       </c>
       <c r="C118" s="5">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D118" s="5">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -2345,19 +2346,10 @@
         <v>125</v>
       </c>
       <c r="C119" s="5">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="D119" s="5">
-        <v>81</v>
-      </c>
-      <c r="F119" t="s">
-        <v>125</v>
-      </c>
-      <c r="G119">
-        <v>164</v>
-      </c>
-      <c r="H119">
-        <v>81</v>
+        <v>62</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -2365,10 +2357,19 @@
         <v>126</v>
       </c>
       <c r="C120" s="5">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D120" s="5">
-        <v>75</v>
+        <v>81</v>
+      </c>
+      <c r="F120" t="s">
+        <v>126</v>
+      </c>
+      <c r="G120">
+        <v>164</v>
+      </c>
+      <c r="H120">
+        <v>81</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -2376,35 +2377,35 @@
         <v>127</v>
       </c>
       <c r="C121" s="5">
+        <v>163</v>
+      </c>
+      <c r="D121" s="5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="B122" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C122" s="5">
         <v>159</v>
       </c>
-      <c r="D121" s="5">
+      <c r="D122" s="5">
         <v>78</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
-      <c r="A122" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B122" s="6" t="s">
+    <row r="123" spans="1:10">
+      <c r="A123" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C122" s="6">
-        <v>153</v>
-      </c>
-      <c r="D122" s="6">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10">
       <c r="B123" s="6" t="s">
         <v>130</v>
       </c>
       <c r="C123" s="6">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D123" s="6">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -2412,10 +2413,10 @@
         <v>131</v>
       </c>
       <c r="C124" s="6">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="D124" s="6">
-        <v>66</v>
+        <v>75</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -2423,10 +2424,10 @@
         <v>132</v>
       </c>
       <c r="C125" s="6">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="D125" s="6">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -2434,10 +2435,10 @@
         <v>133</v>
       </c>
       <c r="C126" s="6">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D126" s="6">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -2445,10 +2446,10 @@
         <v>134</v>
       </c>
       <c r="C127" s="6">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="D127" s="6">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -2456,7 +2457,7 @@
         <v>135</v>
       </c>
       <c r="C128" s="6">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D128" s="6">
         <v>64</v>
@@ -2467,10 +2468,10 @@
         <v>136</v>
       </c>
       <c r="C129" s="6">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="D129" s="6">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -2478,10 +2479,10 @@
         <v>137</v>
       </c>
       <c r="C130" s="6">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="D130" s="6">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="131" spans="1:10">
@@ -2489,10 +2490,10 @@
         <v>138</v>
       </c>
       <c r="C131" s="6">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D131" s="6">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="132" spans="1:10">
@@ -2500,22 +2501,21 @@
         <v>139</v>
       </c>
       <c r="C132" s="6">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D132" s="6">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" customHeight="1" ht="15.75">
-      <c r="A133" s="11"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="B133" s="6" t="s">
         <v>140</v>
       </c>
       <c r="C133" s="6">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="D133" s="6">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="134" spans="1:10" customHeight="1" ht="15.75">
@@ -2523,10 +2523,10 @@
         <v>141</v>
       </c>
       <c r="C134" s="6">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D134" s="6">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="135" spans="1:10" customHeight="1" ht="15.75">
@@ -2534,10 +2534,10 @@
         <v>142</v>
       </c>
       <c r="C135" s="6">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="D135" s="6">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="136" spans="1:10" customHeight="1" ht="15.75">
@@ -2545,35 +2545,35 @@
         <v>143</v>
       </c>
       <c r="C136" s="6">
+        <v>159</v>
+      </c>
+      <c r="D136" s="6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" customHeight="1" ht="15.75">
+      <c r="B137" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C137" s="6">
         <v>155</v>
       </c>
-      <c r="D136" s="6">
+      <c r="D137" s="6">
         <v>74</v>
       </c>
     </row>
-    <row r="137" spans="1:10">
-      <c r="A137" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="B137" s="7" t="s">
+    <row r="138" spans="1:10">
+      <c r="A138" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C137" s="7">
-        <v>145</v>
-      </c>
-      <c r="D137" s="7">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10">
       <c r="B138" s="7" t="s">
         <v>146</v>
       </c>
       <c r="C138" s="7">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="D138" s="7">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -2581,10 +2581,10 @@
         <v>147</v>
       </c>
       <c r="C139" s="7">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D139" s="7">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -2592,10 +2592,10 @@
         <v>148</v>
       </c>
       <c r="C140" s="7">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="D140" s="7">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -2603,10 +2603,10 @@
         <v>149</v>
       </c>
       <c r="C141" s="7">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D141" s="7">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="142" spans="1:10">
@@ -2614,22 +2614,21 @@
         <v>150</v>
       </c>
       <c r="C142" s="7">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D142" s="7">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="143" spans="1:10">
-      <c r="A143" s="11"/>
       <c r="B143" s="7" t="s">
         <v>151</v>
       </c>
       <c r="C143" s="7">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D143" s="7">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="144" spans="1:10">
@@ -2637,7 +2636,7 @@
         <v>152</v>
       </c>
       <c r="C144" s="7">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D144" s="7">
         <v>65</v>
@@ -2648,10 +2647,10 @@
         <v>153</v>
       </c>
       <c r="C145" s="7">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="D145" s="7">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="146" spans="1:10">
@@ -2659,26 +2658,24 @@
         <v>154</v>
       </c>
       <c r="C146" s="7">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="D146" s="7">
-        <v>58</v>
+        <v>71</v>
       </c>
     </row>
     <row r="147" spans="1:10">
-      <c r="A147" s="11"/>
       <c r="B147" s="7" t="s">
         <v>155</v>
       </c>
       <c r="C147" s="7">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="D147" s="7">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="148" spans="1:10">
-      <c r="A148" s="11"/>
       <c r="B148" s="7" t="s">
         <v>156</v>
       </c>
@@ -2694,58 +2691,54 @@
         <v>157</v>
       </c>
       <c r="C149" s="7">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D149" s="7">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="150" spans="1:10">
-      <c r="A150" s="11"/>
       <c r="B150" s="7" t="s">
         <v>158</v>
       </c>
       <c r="C150" s="7">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="D150" s="7">
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
     <row r="151" spans="1:10">
-      <c r="A151" s="11"/>
       <c r="B151" s="7" t="s">
         <v>159</v>
       </c>
       <c r="C151" s="7">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D151" s="7">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="152" spans="1:10">
-      <c r="A152" s="11"/>
       <c r="B152" s="7" t="s">
         <v>160</v>
       </c>
       <c r="C152" s="7">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="D152" s="7">
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="153" spans="1:10">
-      <c r="A153" s="11"/>
       <c r="B153" s="7" t="s">
         <v>161</v>
       </c>
       <c r="C153" s="7">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D153" s="7">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="154" spans="1:10">
@@ -2753,10 +2746,10 @@
         <v>162</v>
       </c>
       <c r="C154" s="7">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D154" s="7">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="155" spans="1:10">
@@ -2764,10 +2757,10 @@
         <v>163</v>
       </c>
       <c r="C155" s="7">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="D155" s="7">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="156" spans="1:10">
@@ -2775,27 +2768,27 @@
         <v>164</v>
       </c>
       <c r="C156" s="7">
+        <v>123</v>
+      </c>
+      <c r="D156" s="7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
+      <c r="B157" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C157" s="7">
         <v>160</v>
       </c>
-      <c r="D156" s="7">
+      <c r="D157" s="7">
         <v>80</v>
       </c>
     </row>
-    <row r="157" spans="1:10">
-      <c r="A157" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B157" s="2" t="s">
+    <row r="158" spans="1:10">
+      <c r="A158" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C157" s="2">
-        <v>159</v>
-      </c>
-      <c r="D157" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10">
       <c r="B158" s="2" t="s">
         <v>167</v>
       </c>
@@ -2803,7 +2796,7 @@
         <v>159</v>
       </c>
       <c r="D158" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="159" spans="1:10">
@@ -2811,10 +2804,10 @@
         <v>168</v>
       </c>
       <c r="C159" s="2">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="D159" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="160" spans="1:10">
@@ -2825,71 +2818,71 @@
         <v>150</v>
       </c>
       <c r="D160" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
+      <c r="B161" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C161" s="2">
+        <v>150</v>
+      </c>
+      <c r="D161" s="2">
         <v>75</v>
       </c>
     </row>
-    <row r="161" spans="1:10">
-      <c r="A161" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="B161" s="8" t="s">
+    <row r="162" spans="1:10">
+      <c r="A162" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="C161" s="8">
-        <v>152</v>
-      </c>
-      <c r="D161" s="8">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10">
       <c r="B162" s="8" t="s">
         <v>172</v>
       </c>
       <c r="C162" s="8">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D162" s="8">
         <v>75</v>
       </c>
     </row>
     <row r="163" spans="1:10">
-      <c r="A163" s="9" t="s">
+      <c r="B163" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="B163" s="9" t="s">
+      <c r="C163" s="8">
+        <v>147</v>
+      </c>
+      <c r="D163" s="8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
+      <c r="A164" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="C163" s="9">
+      <c r="B164" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="C164" s="9">
         <v>160</v>
       </c>
-      <c r="D163" s="9">
+      <c r="D164" s="9">
         <v>80</v>
       </c>
     </row>
-    <row r="164" spans="1:10">
-      <c r="A164" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="B164" s="10" t="s">
+    <row r="165" spans="1:10">
+      <c r="A165" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C164" s="10">
-        <v>155</v>
-      </c>
-      <c r="D164" s="10">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10">
       <c r="B165" s="10" t="s">
         <v>177</v>
       </c>
       <c r="C165" s="10">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D165" s="10">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="166" spans="1:10">
@@ -2897,10 +2890,10 @@
         <v>178</v>
       </c>
       <c r="C166" s="10">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D166" s="10">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="167" spans="1:10">
@@ -2908,10 +2901,10 @@
         <v>179</v>
       </c>
       <c r="C167" s="10">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D167" s="10">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="168" spans="1:10">
@@ -2919,9 +2912,31 @@
         <v>180</v>
       </c>
       <c r="C168" s="10">
+        <v>159</v>
+      </c>
+      <c r="D168" s="10">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
+      <c r="B169" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C169" s="10">
         <v>152</v>
       </c>
-      <c r="D168" s="10">
+      <c r="D169" s="10">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
+      <c r="B170" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C170" s="10">
+        <v>152</v>
+      </c>
+      <c r="D170" s="10">
         <v>65</v>
       </c>
     </row>

--- a/DDC/Config.xlsx
+++ b/DDC/Config.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ProjetDDC\DDC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B029C7-23CD-43B0-9922-71A82B51E0BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId4"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="183">
   <si>
     <t>Modèle</t>
   </si>
@@ -569,17 +574,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="11">
@@ -587,10 +588,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -648,7 +646,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -662,51 +666,38 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="6" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="7" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="8" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="9" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="10" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -996,27 +987,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:J170"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.1428571428571" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.142857142857" customWidth="true" style="0"/>
-    <col min="2" max="2" width="35.857142857143" customWidth="true" style="0"/>
-    <col min="6" max="6" width="17.142857142857" customWidth="true" style="0"/>
-    <col min="7" max="7" width="19.285714285714" customWidth="true" style="0"/>
-    <col min="9" max="9" width="19.428571428571" customWidth="true" style="0"/>
-    <col min="10" max="10" width="19.285714285714" customWidth="true" style="0"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="35.85546875" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1027,7 +1015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:4">
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1038,7 +1026,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:4">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1049,7 +1037,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1063,7 +1051,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.75">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1074,7 +1062,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:4">
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1085,7 +1073,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:4">
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1096,7 +1084,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:4">
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
@@ -1107,7 +1095,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:4">
       <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
@@ -1118,7 +1106,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:4">
       <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
@@ -1129,7 +1117,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:4">
       <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
@@ -1140,7 +1128,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:4">
       <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
@@ -1151,7 +1139,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:4">
       <c r="B13" s="3" t="s">
         <v>15</v>
       </c>
@@ -1162,7 +1150,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:4">
       <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1173,7 +1161,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:4">
       <c r="B15" s="3" t="s">
         <v>17</v>
       </c>
@@ -1184,7 +1172,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:4">
       <c r="B16" s="3" t="s">
         <v>18</v>
       </c>
@@ -1195,7 +1183,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:4">
       <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
@@ -1206,7 +1194,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:4">
       <c r="B18" s="3" t="s">
         <v>20</v>
       </c>
@@ -1217,7 +1205,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:4">
       <c r="B19" s="3" t="s">
         <v>21</v>
       </c>
@@ -1228,7 +1216,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:4">
       <c r="B20" s="3" t="s">
         <v>22</v>
       </c>
@@ -1239,7 +1227,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:4">
       <c r="B21" s="3" t="s">
         <v>23</v>
       </c>
@@ -1250,7 +1238,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:4">
       <c r="B22" s="3" t="s">
         <v>24</v>
       </c>
@@ -1261,7 +1249,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:4">
       <c r="B23" s="3" t="s">
         <v>25</v>
       </c>
@@ -1272,7 +1260,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:4">
       <c r="B24" s="3" t="s">
         <v>26</v>
       </c>
@@ -1283,7 +1271,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:10" customHeight="1" ht="15.75">
+    <row r="25" spans="1:4" ht="15.75" customHeight="1">
       <c r="B25" s="3" t="s">
         <v>27</v>
       </c>
@@ -1294,7 +1282,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:10" customHeight="1" ht="15.75">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1">
       <c r="A26" s="4" t="s">
         <v>28</v>
       </c>
@@ -1308,7 +1296,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.75">
+    <row r="27" spans="1:4" ht="15.75" customHeight="1">
       <c r="B27" s="4" t="s">
         <v>30</v>
       </c>
@@ -1319,7 +1307,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:4">
       <c r="B28" s="4" t="s">
         <v>31</v>
       </c>
@@ -1330,7 +1318,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:4">
       <c r="B29" s="4" t="s">
         <v>32</v>
       </c>
@@ -1341,7 +1329,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:4">
       <c r="B30" s="4" t="s">
         <v>33</v>
       </c>
@@ -1352,7 +1340,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:4">
       <c r="B31" s="4" t="s">
         <v>34</v>
       </c>
@@ -1363,7 +1351,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:4">
       <c r="B32" s="4" t="s">
         <v>35</v>
       </c>
@@ -1374,7 +1362,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="2:4">
       <c r="B33" s="4" t="s">
         <v>36</v>
       </c>
@@ -1385,7 +1373,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="2:4">
       <c r="B34" s="4" t="s">
         <v>37</v>
       </c>
@@ -1396,7 +1384,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="2:4">
       <c r="B35" s="4" t="s">
         <v>38</v>
       </c>
@@ -1407,7 +1395,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="2:4">
       <c r="B36" s="4" t="s">
         <v>39</v>
       </c>
@@ -1418,7 +1406,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="2:4">
       <c r="B37" s="4" t="s">
         <v>40</v>
       </c>
@@ -1429,7 +1417,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="2:4">
       <c r="B38" s="4" t="s">
         <v>41</v>
       </c>
@@ -1440,7 +1428,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="2:4">
       <c r="B39" s="4" t="s">
         <v>42</v>
       </c>
@@ -1451,7 +1439,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="2:4">
       <c r="B40" s="4" t="s">
         <v>43</v>
       </c>
@@ -1462,7 +1450,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="2:4">
       <c r="B41" s="4" t="s">
         <v>44</v>
       </c>
@@ -1473,7 +1461,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="2:4">
       <c r="B42" s="4" t="s">
         <v>45</v>
       </c>
@@ -1484,7 +1472,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="2:4">
       <c r="B43" s="4" t="s">
         <v>46</v>
       </c>
@@ -1495,7 +1483,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="2:4">
       <c r="B44" s="4" t="s">
         <v>47</v>
       </c>
@@ -1506,7 +1494,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="2:4">
       <c r="B45" s="4" t="s">
         <v>48</v>
       </c>
@@ -1517,7 +1505,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="2:4">
       <c r="B46" s="4" t="s">
         <v>49</v>
       </c>
@@ -1528,7 +1516,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="2:4">
       <c r="B47" s="4" t="s">
         <v>50</v>
       </c>
@@ -1539,7 +1527,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="2:4">
       <c r="B48" s="4" t="s">
         <v>51</v>
       </c>
@@ -1550,7 +1538,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="2:8">
       <c r="B49" s="4" t="s">
         <v>52</v>
       </c>
@@ -1561,7 +1549,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="2:8">
       <c r="B50" s="4" t="s">
         <v>53</v>
       </c>
@@ -1572,7 +1560,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="2:8">
       <c r="B51" s="4" t="s">
         <v>54</v>
       </c>
@@ -1583,7 +1571,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="2:8">
       <c r="B52" s="4" t="s">
         <v>55</v>
       </c>
@@ -1594,7 +1582,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="2:8">
       <c r="B53" s="4" t="s">
         <v>56</v>
       </c>
@@ -1605,7 +1593,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="2:8">
       <c r="B54" s="4" t="s">
         <v>57</v>
       </c>
@@ -1616,7 +1604,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="2:8">
       <c r="B55" s="4" t="s">
         <v>58</v>
       </c>
@@ -1636,7 +1624,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="2:8">
       <c r="B56" s="4" t="s">
         <v>60</v>
       </c>
@@ -1647,7 +1635,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="2:8">
       <c r="B57" s="4" t="s">
         <v>61</v>
       </c>
@@ -1658,7 +1646,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
+    <row r="58" spans="2:8">
       <c r="B58" s="4" t="s">
         <v>62</v>
       </c>
@@ -1669,7 +1657,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="2:8">
       <c r="B59" s="4" t="s">
         <v>63</v>
       </c>
@@ -1680,7 +1668,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="2:8">
       <c r="B60" s="4" t="s">
         <v>64</v>
       </c>
@@ -1691,7 +1679,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="2:8">
       <c r="B61" s="4" t="s">
         <v>65</v>
       </c>
@@ -1702,7 +1690,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="1:10">
+    <row r="62" spans="2:8">
       <c r="B62" s="4" t="s">
         <v>66</v>
       </c>
@@ -1713,7 +1701,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
+    <row r="63" spans="2:8">
       <c r="B63" s="4" t="s">
         <v>67</v>
       </c>
@@ -1724,7 +1712,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:10">
+    <row r="64" spans="2:8">
       <c r="B64" s="4" t="s">
         <v>68</v>
       </c>
@@ -1735,7 +1723,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="2:4">
       <c r="B65" s="4" t="s">
         <v>69</v>
       </c>
@@ -1746,7 +1734,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="2:4">
       <c r="B66" s="4" t="s">
         <v>70</v>
       </c>
@@ -1757,7 +1745,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="2:4">
       <c r="B67" s="4" t="s">
         <v>71</v>
       </c>
@@ -1768,7 +1756,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="2:4">
       <c r="B68" s="4" t="s">
         <v>72</v>
       </c>
@@ -1779,7 +1767,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="2:4">
       <c r="B69" s="4" t="s">
         <v>73</v>
       </c>
@@ -1790,7 +1778,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="2:4">
       <c r="B70" s="4" t="s">
         <v>74</v>
       </c>
@@ -1801,7 +1789,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="2:4">
       <c r="B71" s="4" t="s">
         <v>75</v>
       </c>
@@ -1812,7 +1800,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="72" spans="1:10">
+    <row r="72" spans="2:4">
       <c r="B72" s="4" t="s">
         <v>76</v>
       </c>
@@ -1823,7 +1811,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="2:4">
       <c r="B73" s="4" t="s">
         <v>77</v>
       </c>
@@ -1834,7 +1822,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="1:10">
+    <row r="74" spans="2:4">
       <c r="B74" s="4" t="s">
         <v>78</v>
       </c>
@@ -1845,7 +1833,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="75" spans="1:10">
+    <row r="75" spans="2:4">
       <c r="B75" s="4" t="s">
         <v>79</v>
       </c>
@@ -1856,7 +1844,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="1:10">
+    <row r="76" spans="2:4">
       <c r="B76" s="4" t="s">
         <v>80</v>
       </c>
@@ -1867,7 +1855,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="77" spans="1:10">
+    <row r="77" spans="2:4">
       <c r="B77" s="4" t="s">
         <v>81</v>
       </c>
@@ -1878,7 +1866,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
+    <row r="78" spans="2:4">
       <c r="B78" s="4" t="s">
         <v>82</v>
       </c>
@@ -1889,7 +1877,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="79" spans="1:10">
+    <row r="79" spans="2:4">
       <c r="B79" s="4" t="s">
         <v>83</v>
       </c>
@@ -1900,7 +1888,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="1:10">
+    <row r="80" spans="2:4">
       <c r="B80" s="4" t="s">
         <v>84</v>
       </c>
@@ -1911,7 +1899,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:4">
       <c r="B81" s="4" t="s">
         <v>85</v>
       </c>
@@ -1922,7 +1910,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:4">
       <c r="B82" s="4" t="s">
         <v>86</v>
       </c>
@@ -1933,7 +1921,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="83" spans="1:10">
+    <row r="83" spans="1:4">
       <c r="B83" s="4" t="s">
         <v>87</v>
       </c>
@@ -1944,7 +1932,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:4">
       <c r="B84" s="4" t="s">
         <v>88</v>
       </c>
@@ -1955,7 +1943,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:4">
       <c r="B85" s="4" t="s">
         <v>89</v>
       </c>
@@ -1966,7 +1954,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:4">
       <c r="B86" s="4" t="s">
         <v>90</v>
       </c>
@@ -1977,7 +1965,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="87" spans="1:10" customHeight="1" ht="15.75">
+    <row r="87" spans="1:4" ht="15.75" customHeight="1">
       <c r="B87" s="4" t="s">
         <v>91</v>
       </c>
@@ -1988,7 +1976,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="88" spans="1:10" customHeight="1" ht="15.75">
+    <row r="88" spans="1:4" ht="15.75" customHeight="1">
       <c r="B88" s="4" t="s">
         <v>92</v>
       </c>
@@ -1999,7 +1987,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="89" spans="1:10" customHeight="1" ht="15.75">
+    <row r="89" spans="1:4" ht="15.75" customHeight="1">
       <c r="B89" s="4" t="s">
         <v>93</v>
       </c>
@@ -2010,7 +1998,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:4">
       <c r="B90" s="4" t="s">
         <v>94</v>
       </c>
@@ -2021,7 +2009,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:4">
       <c r="A91" s="5" t="s">
         <v>95</v>
       </c>
@@ -2035,7 +2023,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:4">
       <c r="B92" s="5" t="s">
         <v>97</v>
       </c>
@@ -2046,7 +2034,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:4">
       <c r="B93" s="5" t="s">
         <v>98</v>
       </c>
@@ -2057,7 +2045,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:4">
       <c r="B94" s="5" t="s">
         <v>99</v>
       </c>
@@ -2068,7 +2056,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:4">
       <c r="B95" s="5" t="s">
         <v>100</v>
       </c>
@@ -2079,7 +2067,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:4">
       <c r="B96" s="5" t="s">
         <v>101</v>
       </c>
@@ -2090,7 +2078,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="2:9">
       <c r="B97" s="5" t="s">
         <v>102</v>
       </c>
@@ -2101,7 +2089,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="2:9">
       <c r="B98" s="5" t="s">
         <v>103</v>
       </c>
@@ -2112,7 +2100,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="99" spans="1:10">
+    <row r="99" spans="2:9">
       <c r="B99" s="5" t="s">
         <v>104</v>
       </c>
@@ -2123,7 +2111,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="100" spans="1:10">
+    <row r="100" spans="2:9">
       <c r="B100" s="5" t="s">
         <v>105</v>
       </c>
@@ -2134,7 +2122,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="101" spans="1:10">
+    <row r="101" spans="2:9">
       <c r="B101" s="5" t="s">
         <v>106</v>
       </c>
@@ -2154,7 +2142,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="102" spans="1:10">
+    <row r="102" spans="2:9">
       <c r="B102" s="5" t="s">
         <v>108</v>
       </c>
@@ -2165,7 +2153,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="103" spans="1:10">
+    <row r="103" spans="2:9">
       <c r="B103" s="5" t="s">
         <v>109</v>
       </c>
@@ -2176,7 +2164,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="104" spans="1:10">
+    <row r="104" spans="2:9">
       <c r="B104" s="5" t="s">
         <v>110</v>
       </c>
@@ -2187,7 +2175,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="105" spans="1:10">
+    <row r="105" spans="2:9">
       <c r="B105" s="5" t="s">
         <v>111</v>
       </c>
@@ -2198,7 +2186,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="106" spans="1:10">
+    <row r="106" spans="2:9">
       <c r="B106" s="5" t="s">
         <v>112</v>
       </c>
@@ -2209,7 +2197,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="107" spans="1:10">
+    <row r="107" spans="2:9">
       <c r="B107" s="5" t="s">
         <v>113</v>
       </c>
@@ -2220,7 +2208,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="108" spans="1:10">
+    <row r="108" spans="2:9">
       <c r="B108" s="5" t="s">
         <v>114</v>
       </c>
@@ -2231,7 +2219,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="109" spans="1:10">
+    <row r="109" spans="2:9">
       <c r="B109" s="5" t="s">
         <v>115</v>
       </c>
@@ -2242,7 +2230,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="110" spans="1:10">
+    <row r="110" spans="2:9">
       <c r="B110" s="5" t="s">
         <v>116</v>
       </c>
@@ -2253,7 +2241,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="111" spans="1:10" customHeight="1" ht="15.75">
+    <row r="111" spans="2:9" ht="15.75" customHeight="1">
       <c r="B111" s="5" t="s">
         <v>117</v>
       </c>
@@ -2264,7 +2252,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="112" spans="1:10" customHeight="1" ht="15.75">
+    <row r="112" spans="2:9" ht="15.75" customHeight="1">
       <c r="B112" s="5" t="s">
         <v>118</v>
       </c>
@@ -2275,7 +2263,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="113" spans="1:10">
+    <row r="113" spans="1:8">
       <c r="B113" s="5" t="s">
         <v>119</v>
       </c>
@@ -2286,7 +2274,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="114" spans="1:10">
+    <row r="114" spans="1:8">
       <c r="B114" s="5" t="s">
         <v>120</v>
       </c>
@@ -2297,7 +2285,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="115" spans="1:10">
+    <row r="115" spans="1:8">
       <c r="B115" s="5" t="s">
         <v>121</v>
       </c>
@@ -2308,7 +2296,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="116" spans="1:10">
+    <row r="116" spans="1:8">
       <c r="B116" s="5" t="s">
         <v>122</v>
       </c>
@@ -2319,7 +2307,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="117" spans="1:10">
+    <row r="117" spans="1:8">
       <c r="B117" s="5" t="s">
         <v>123</v>
       </c>
@@ -2330,7 +2318,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="118" spans="1:10">
+    <row r="118" spans="1:8">
       <c r="B118" s="5" t="s">
         <v>124</v>
       </c>
@@ -2341,7 +2329,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="119" spans="1:10">
+    <row r="119" spans="1:8">
       <c r="B119" s="5" t="s">
         <v>125</v>
       </c>
@@ -2352,7 +2340,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="120" spans="1:10">
+    <row r="120" spans="1:8">
       <c r="B120" s="5" t="s">
         <v>126</v>
       </c>
@@ -2372,7 +2360,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="121" spans="1:10">
+    <row r="121" spans="1:8">
       <c r="B121" s="5" t="s">
         <v>127</v>
       </c>
@@ -2383,18 +2371,18 @@
         <v>75</v>
       </c>
     </row>
-    <row r="122" spans="1:10">
+    <row r="122" spans="1:8">
       <c r="B122" s="5" t="s">
         <v>128</v>
       </c>
       <c r="C122" s="5">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D122" s="5">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" s="6" t="s">
         <v>129</v>
       </c>
@@ -2408,7 +2396,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="124" spans="1:10">
+    <row r="124" spans="1:8">
       <c r="B124" s="6" t="s">
         <v>131</v>
       </c>
@@ -2419,7 +2407,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="125" spans="1:10">
+    <row r="125" spans="1:8">
       <c r="B125" s="6" t="s">
         <v>132</v>
       </c>
@@ -2430,7 +2418,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="126" spans="1:10">
+    <row r="126" spans="1:8">
       <c r="B126" s="6" t="s">
         <v>133</v>
       </c>
@@ -2441,7 +2429,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="127" spans="1:10">
+    <row r="127" spans="1:8">
       <c r="B127" s="6" t="s">
         <v>134</v>
       </c>
@@ -2452,7 +2440,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="128" spans="1:10">
+    <row r="128" spans="1:8">
       <c r="B128" s="6" t="s">
         <v>135</v>
       </c>
@@ -2463,7 +2451,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="129" spans="1:10">
+    <row r="129" spans="1:4">
       <c r="B129" s="6" t="s">
         <v>136</v>
       </c>
@@ -2474,7 +2462,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="130" spans="1:10">
+    <row r="130" spans="1:4">
       <c r="B130" s="6" t="s">
         <v>137</v>
       </c>
@@ -2485,7 +2473,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="131" spans="1:10">
+    <row r="131" spans="1:4">
       <c r="B131" s="6" t="s">
         <v>138</v>
       </c>
@@ -2496,7 +2484,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="132" spans="1:10">
+    <row r="132" spans="1:4">
       <c r="B132" s="6" t="s">
         <v>139</v>
       </c>
@@ -2507,7 +2495,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="133" spans="1:10">
+    <row r="133" spans="1:4">
       <c r="B133" s="6" t="s">
         <v>140</v>
       </c>
@@ -2518,7 +2506,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="134" spans="1:10" customHeight="1" ht="15.75">
+    <row r="134" spans="1:4" ht="15.75" customHeight="1">
       <c r="B134" s="6" t="s">
         <v>141</v>
       </c>
@@ -2529,7 +2517,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="135" spans="1:10" customHeight="1" ht="15.75">
+    <row r="135" spans="1:4" ht="15.75" customHeight="1">
       <c r="B135" s="6" t="s">
         <v>142</v>
       </c>
@@ -2540,7 +2528,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="136" spans="1:10" customHeight="1" ht="15.75">
+    <row r="136" spans="1:4" ht="15.75" customHeight="1">
       <c r="B136" s="6" t="s">
         <v>143</v>
       </c>
@@ -2551,7 +2539,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="137" spans="1:10" customHeight="1" ht="15.75">
+    <row r="137" spans="1:4" ht="15.75" customHeight="1">
       <c r="B137" s="6" t="s">
         <v>144</v>
       </c>
@@ -2562,7 +2550,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="138" spans="1:10">
+    <row r="138" spans="1:4">
       <c r="A138" s="7" t="s">
         <v>145</v>
       </c>
@@ -2576,7 +2564,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="139" spans="1:10">
+    <row r="139" spans="1:4">
       <c r="B139" s="7" t="s">
         <v>147</v>
       </c>
@@ -2587,7 +2575,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="140" spans="1:10">
+    <row r="140" spans="1:4">
       <c r="B140" s="7" t="s">
         <v>148</v>
       </c>
@@ -2598,7 +2586,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="141" spans="1:10">
+    <row r="141" spans="1:4">
       <c r="B141" s="7" t="s">
         <v>149</v>
       </c>
@@ -2609,7 +2597,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="142" spans="1:10">
+    <row r="142" spans="1:4">
       <c r="B142" s="7" t="s">
         <v>150</v>
       </c>
@@ -2620,7 +2608,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="143" spans="1:10">
+    <row r="143" spans="1:4">
       <c r="B143" s="7" t="s">
         <v>151</v>
       </c>
@@ -2631,7 +2619,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="144" spans="1:10">
+    <row r="144" spans="1:4">
       <c r="B144" s="7" t="s">
         <v>152</v>
       </c>
@@ -2642,7 +2630,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="145" spans="1:10">
+    <row r="145" spans="1:4">
       <c r="B145" s="7" t="s">
         <v>153</v>
       </c>
@@ -2653,7 +2641,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="146" spans="1:10">
+    <row r="146" spans="1:4">
       <c r="B146" s="7" t="s">
         <v>154</v>
       </c>
@@ -2664,7 +2652,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="147" spans="1:10">
+    <row r="147" spans="1:4">
       <c r="B147" s="7" t="s">
         <v>155</v>
       </c>
@@ -2675,7 +2663,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="148" spans="1:10">
+    <row r="148" spans="1:4">
       <c r="B148" s="7" t="s">
         <v>156</v>
       </c>
@@ -2686,7 +2674,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="149" spans="1:10">
+    <row r="149" spans="1:4">
       <c r="B149" s="7" t="s">
         <v>157</v>
       </c>
@@ -2697,7 +2685,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="150" spans="1:10">
+    <row r="150" spans="1:4">
       <c r="B150" s="7" t="s">
         <v>158</v>
       </c>
@@ -2708,7 +2696,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="151" spans="1:10">
+    <row r="151" spans="1:4">
       <c r="B151" s="7" t="s">
         <v>159</v>
       </c>
@@ -2719,7 +2707,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="152" spans="1:10">
+    <row r="152" spans="1:4">
       <c r="B152" s="7" t="s">
         <v>160</v>
       </c>
@@ -2730,7 +2718,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="153" spans="1:10">
+    <row r="153" spans="1:4">
       <c r="B153" s="7" t="s">
         <v>161</v>
       </c>
@@ -2741,7 +2729,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="154" spans="1:10">
+    <row r="154" spans="1:4">
       <c r="B154" s="7" t="s">
         <v>162</v>
       </c>
@@ -2752,7 +2740,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="155" spans="1:10">
+    <row r="155" spans="1:4">
       <c r="B155" s="7" t="s">
         <v>163</v>
       </c>
@@ -2763,7 +2751,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="156" spans="1:10">
+    <row r="156" spans="1:4">
       <c r="B156" s="7" t="s">
         <v>164</v>
       </c>
@@ -2774,7 +2762,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="157" spans="1:10">
+    <row r="157" spans="1:4">
       <c r="B157" s="7" t="s">
         <v>165</v>
       </c>
@@ -2785,7 +2773,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="158" spans="1:10">
+    <row r="158" spans="1:4">
       <c r="A158" s="2" t="s">
         <v>166</v>
       </c>
@@ -2799,7 +2787,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="159" spans="1:10">
+    <row r="159" spans="1:4">
       <c r="B159" s="2" t="s">
         <v>168</v>
       </c>
@@ -2810,7 +2798,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="160" spans="1:10">
+    <row r="160" spans="1:4">
       <c r="B160" s="2" t="s">
         <v>169</v>
       </c>
@@ -2821,7 +2809,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="161" spans="1:10">
+    <row r="161" spans="1:4">
       <c r="B161" s="2" t="s">
         <v>170</v>
       </c>
@@ -2832,7 +2820,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="162" spans="1:10">
+    <row r="162" spans="1:4">
       <c r="A162" s="8" t="s">
         <v>171</v>
       </c>
@@ -2846,7 +2834,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="163" spans="1:10">
+    <row r="163" spans="1:4">
       <c r="B163" s="8" t="s">
         <v>173</v>
       </c>
@@ -2857,7 +2845,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="164" spans="1:10">
+    <row r="164" spans="1:4">
       <c r="A164" s="9" t="s">
         <v>174</v>
       </c>
@@ -2871,7 +2859,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="165" spans="1:10">
+    <row r="165" spans="1:4">
       <c r="A165" s="10" t="s">
         <v>176</v>
       </c>
@@ -2885,7 +2873,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="166" spans="1:10">
+    <row r="166" spans="1:4">
       <c r="B166" s="10" t="s">
         <v>178</v>
       </c>
@@ -2896,7 +2884,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="167" spans="1:10">
+    <row r="167" spans="1:4">
       <c r="B167" s="10" t="s">
         <v>179</v>
       </c>
@@ -2907,7 +2895,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="168" spans="1:10">
+    <row r="168" spans="1:4">
       <c r="B168" s="10" t="s">
         <v>180</v>
       </c>
@@ -2918,7 +2906,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="169" spans="1:10">
+    <row r="169" spans="1:4">
       <c r="B169" s="10" t="s">
         <v>181</v>
       </c>
@@ -2929,7 +2917,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="170" spans="1:10">
+    <row r="170" spans="1:4">
       <c r="B170" s="10" t="s">
         <v>182</v>
       </c>
@@ -2941,17 +2929,8 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/DDC/Config.xlsx
+++ b/DDC/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ProjetDDC\DDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B029C7-23CD-43B0-9922-71A82B51E0BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDB8B41-A59D-4D8E-9C86-67D58B175083}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -990,8 +990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D123" sqref="D123"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1805,10 +1805,10 @@
         <v>76</v>
       </c>
       <c r="C72" s="4">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="D72" s="4">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="2:4">

--- a/DDC/Config.xlsx
+++ b/DDC/Config.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ProjetDDC\DDC\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDB8B41-A59D-4D8E-9C86-67D58B175083}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="182">
   <si>
     <t>Modèle</t>
   </si>
@@ -409,52 +404,52 @@
     <t>HUAWEIY72018</t>
   </si>
   <si>
-    <t>Honor</t>
-  </si>
-  <si>
-    <t>HONOR5X</t>
-  </si>
-  <si>
-    <t>HONOR6X</t>
-  </si>
-  <si>
-    <t>HONOR6</t>
-  </si>
-  <si>
-    <t>HONOR7A</t>
-  </si>
-  <si>
-    <t>HONOR7S</t>
-  </si>
-  <si>
-    <t>HONOR7</t>
-  </si>
-  <si>
-    <t>HONOR8</t>
-  </si>
-  <si>
-    <t>HONOR8X</t>
-  </si>
-  <si>
-    <t>HONOR9</t>
-  </si>
-  <si>
-    <t>HONOR9LITE</t>
-  </si>
-  <si>
-    <t>HONOR10</t>
-  </si>
-  <si>
-    <t>HONOR10LITE</t>
-  </si>
-  <si>
-    <t>HONOR20</t>
-  </si>
-  <si>
-    <t>HONORVIEW10</t>
-  </si>
-  <si>
-    <t>HONORVIEW20</t>
+    <t>HUAWEIHONOR</t>
+  </si>
+  <si>
+    <t>HUAWEIHONOR5X</t>
+  </si>
+  <si>
+    <t>HUAWEIHONOR6X</t>
+  </si>
+  <si>
+    <t>HUAWEIHONOR6</t>
+  </si>
+  <si>
+    <t>HUAWEIHONOR7A</t>
+  </si>
+  <si>
+    <t>HUAWEIHONOR7S</t>
+  </si>
+  <si>
+    <t>HUAWEIHONOR7</t>
+  </si>
+  <si>
+    <t>HUAWEIHONOR8</t>
+  </si>
+  <si>
+    <t>HUAWEIHONOR8X</t>
+  </si>
+  <si>
+    <t>HUAWEIHONOR9</t>
+  </si>
+  <si>
+    <t>HUAWEIHONOR9LITE</t>
+  </si>
+  <si>
+    <t>HUAWEIHONOR10</t>
+  </si>
+  <si>
+    <t>HUAWEIHONOR10LITE</t>
+  </si>
+  <si>
+    <t>HUAWEIHONOR20</t>
+  </si>
+  <si>
+    <t>HUAWEIHONORVIEW10</t>
+  </si>
+  <si>
+    <t>HUAWEIHONORVIEW20</t>
   </si>
   <si>
     <t>SONY</t>
@@ -565,22 +560,23 @@
     <t>ONEPLUS7</t>
   </si>
   <si>
-    <t>SAMSUNGXIAOMI A3</t>
-  </si>
-  <si>
-    <t>ASUSXA1</t>
+    <t>IPHONEIPHONE5C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="11">
@@ -588,7 +584,10 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -646,13 +645,7 @@
     </fill>
   </fills>
   <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -666,38 +659,51 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="6" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="7" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="8" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="9" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="10" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -987,24 +993,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I170"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:J170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="B169" sqref="B169:D171"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.140625" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
-    <col min="2" max="2" width="35.85546875" customWidth="1"/>
-    <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="true" style="0"/>
+    <col min="2" max="2" width="35.85546875" customWidth="true" style="0"/>
+    <col min="6" max="6" width="21" customWidth="true" style="0"/>
+    <col min="7" max="7" width="19.28515625" customWidth="true" style="0"/>
+    <col min="9" max="9" width="19.42578125" customWidth="true" style="0"/>
+    <col min="10" max="10" width="19.28515625" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1015,7 +1024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:10">
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1026,7 +1035,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:10">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1037,7 +1046,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1051,7 +1060,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1">
+    <row r="5" spans="1:10" customHeight="1" ht="15.75">
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
@@ -1062,7 +1071,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:10">
       <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
@@ -1073,7 +1082,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:10">
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1084,7 +1093,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:10">
       <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
@@ -1095,7 +1104,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:10">
       <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
@@ -1106,7 +1115,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:10">
       <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
@@ -1117,7 +1126,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:10">
       <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
@@ -1128,7 +1137,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:10">
       <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
@@ -1139,7 +1148,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:10">
       <c r="B13" s="3" t="s">
         <v>15</v>
       </c>
@@ -1150,7 +1159,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:10">
       <c r="B14" s="3" t="s">
         <v>16</v>
       </c>
@@ -1161,7 +1170,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:10">
       <c r="B15" s="3" t="s">
         <v>17</v>
       </c>
@@ -1172,7 +1181,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:10">
       <c r="B16" s="3" t="s">
         <v>18</v>
       </c>
@@ -1183,7 +1192,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:10">
       <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
@@ -1194,7 +1203,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:10">
       <c r="B18" s="3" t="s">
         <v>20</v>
       </c>
@@ -1205,7 +1214,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:10">
       <c r="B19" s="3" t="s">
         <v>21</v>
       </c>
@@ -1216,7 +1225,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:10">
       <c r="B20" s="3" t="s">
         <v>22</v>
       </c>
@@ -1227,7 +1236,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:10">
       <c r="B21" s="3" t="s">
         <v>23</v>
       </c>
@@ -1238,7 +1247,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:10">
       <c r="B22" s="3" t="s">
         <v>24</v>
       </c>
@@ -1249,7 +1258,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:10">
       <c r="B23" s="3" t="s">
         <v>25</v>
       </c>
@@ -1260,7 +1269,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:10">
       <c r="B24" s="3" t="s">
         <v>26</v>
       </c>
@@ -1271,7 +1280,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1">
+    <row r="25" spans="1:10" customHeight="1" ht="15.75">
       <c r="B25" s="3" t="s">
         <v>27</v>
       </c>
@@ -1282,7 +1291,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1">
+    <row r="26" spans="1:10" customHeight="1" ht="15.75">
       <c r="A26" s="4" t="s">
         <v>28</v>
       </c>
@@ -1296,7 +1305,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1">
+    <row r="27" spans="1:10" customHeight="1" ht="15.75">
       <c r="B27" s="4" t="s">
         <v>30</v>
       </c>
@@ -1307,7 +1316,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:10">
       <c r="B28" s="4" t="s">
         <v>31</v>
       </c>
@@ -1318,7 +1327,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:10">
       <c r="B29" s="4" t="s">
         <v>32</v>
       </c>
@@ -1329,7 +1338,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:10">
       <c r="B30" s="4" t="s">
         <v>33</v>
       </c>
@@ -1340,7 +1349,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:10">
       <c r="B31" s="4" t="s">
         <v>34</v>
       </c>
@@ -1351,7 +1360,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:10">
       <c r="B32" s="4" t="s">
         <v>35</v>
       </c>
@@ -1362,7 +1371,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="2:4">
+    <row r="33" spans="1:10">
       <c r="B33" s="4" t="s">
         <v>36</v>
       </c>
@@ -1373,7 +1382,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="2:4">
+    <row r="34" spans="1:10">
       <c r="B34" s="4" t="s">
         <v>37</v>
       </c>
@@ -1384,7 +1393,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="2:4">
+    <row r="35" spans="1:10">
       <c r="B35" s="4" t="s">
         <v>38</v>
       </c>
@@ -1395,7 +1404,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="2:4">
+    <row r="36" spans="1:10">
       <c r="B36" s="4" t="s">
         <v>39</v>
       </c>
@@ -1406,7 +1415,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="37" spans="2:4">
+    <row r="37" spans="1:10">
       <c r="B37" s="4" t="s">
         <v>40</v>
       </c>
@@ -1417,7 +1426,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="2:4">
+    <row r="38" spans="1:10">
       <c r="B38" s="4" t="s">
         <v>41</v>
       </c>
@@ -1428,7 +1437,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="2:4">
+    <row r="39" spans="1:10">
       <c r="B39" s="4" t="s">
         <v>42</v>
       </c>
@@ -1439,7 +1448,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="2:4">
+    <row r="40" spans="1:10">
       <c r="B40" s="4" t="s">
         <v>43</v>
       </c>
@@ -1450,7 +1459,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="2:4">
+    <row r="41" spans="1:10">
       <c r="B41" s="4" t="s">
         <v>44</v>
       </c>
@@ -1461,7 +1470,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="42" spans="2:4">
+    <row r="42" spans="1:10">
       <c r="B42" s="4" t="s">
         <v>45</v>
       </c>
@@ -1472,7 +1481,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="43" spans="2:4">
+    <row r="43" spans="1:10">
       <c r="B43" s="4" t="s">
         <v>46</v>
       </c>
@@ -1483,7 +1492,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="2:4">
+    <row r="44" spans="1:10">
       <c r="B44" s="4" t="s">
         <v>47</v>
       </c>
@@ -1494,7 +1503,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="2:4">
+    <row r="45" spans="1:10">
       <c r="B45" s="4" t="s">
         <v>48</v>
       </c>
@@ -1505,7 +1514,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="46" spans="2:4">
+    <row r="46" spans="1:10">
       <c r="B46" s="4" t="s">
         <v>49</v>
       </c>
@@ -1516,7 +1525,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="2:4">
+    <row r="47" spans="1:10">
       <c r="B47" s="4" t="s">
         <v>50</v>
       </c>
@@ -1527,7 +1536,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="2:4">
+    <row r="48" spans="1:10">
       <c r="B48" s="4" t="s">
         <v>51</v>
       </c>
@@ -1538,7 +1547,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="2:8">
+    <row r="49" spans="1:10">
       <c r="B49" s="4" t="s">
         <v>52</v>
       </c>
@@ -1549,7 +1558,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="2:8">
+    <row r="50" spans="1:10">
       <c r="B50" s="4" t="s">
         <v>53</v>
       </c>
@@ -1560,7 +1569,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="2:8">
+    <row r="51" spans="1:10">
       <c r="B51" s="4" t="s">
         <v>54</v>
       </c>
@@ -1571,7 +1580,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="52" spans="2:8">
+    <row r="52" spans="1:10">
       <c r="B52" s="4" t="s">
         <v>55</v>
       </c>
@@ -1582,7 +1591,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="2:8">
+    <row r="53" spans="1:10">
       <c r="B53" s="4" t="s">
         <v>56</v>
       </c>
@@ -1593,7 +1602,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="2:8">
+    <row r="54" spans="1:10">
       <c r="B54" s="4" t="s">
         <v>57</v>
       </c>
@@ -1604,7 +1613,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="2:8">
+    <row r="55" spans="1:10">
       <c r="B55" s="4" t="s">
         <v>58</v>
       </c>
@@ -1624,7 +1633,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="2:8">
+    <row r="56" spans="1:10">
       <c r="B56" s="4" t="s">
         <v>60</v>
       </c>
@@ -1635,7 +1644,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="57" spans="2:8">
+    <row r="57" spans="1:10">
       <c r="B57" s="4" t="s">
         <v>61</v>
       </c>
@@ -1646,7 +1655,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="58" spans="2:8">
+    <row r="58" spans="1:10">
       <c r="B58" s="4" t="s">
         <v>62</v>
       </c>
@@ -1657,7 +1666,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="59" spans="2:8">
+    <row r="59" spans="1:10">
       <c r="B59" s="4" t="s">
         <v>63</v>
       </c>
@@ -1668,7 +1677,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="2:8">
+    <row r="60" spans="1:10">
       <c r="B60" s="4" t="s">
         <v>64</v>
       </c>
@@ -1679,7 +1688,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="2:8">
+    <row r="61" spans="1:10">
       <c r="B61" s="4" t="s">
         <v>65</v>
       </c>
@@ -1690,7 +1699,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="2:8">
+    <row r="62" spans="1:10">
       <c r="B62" s="4" t="s">
         <v>66</v>
       </c>
@@ -1701,7 +1710,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="2:8">
+    <row r="63" spans="1:10">
       <c r="B63" s="4" t="s">
         <v>67</v>
       </c>
@@ -1712,7 +1721,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="2:8">
+    <row r="64" spans="1:10">
       <c r="B64" s="4" t="s">
         <v>68</v>
       </c>
@@ -1723,7 +1732,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="2:4">
+    <row r="65" spans="1:10">
       <c r="B65" s="4" t="s">
         <v>69</v>
       </c>
@@ -1734,7 +1743,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="66" spans="2:4">
+    <row r="66" spans="1:10">
       <c r="B66" s="4" t="s">
         <v>70</v>
       </c>
@@ -1745,7 +1754,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="67" spans="2:4">
+    <row r="67" spans="1:10">
       <c r="B67" s="4" t="s">
         <v>71</v>
       </c>
@@ -1756,7 +1765,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="68" spans="2:4">
+    <row r="68" spans="1:10">
       <c r="B68" s="4" t="s">
         <v>72</v>
       </c>
@@ -1767,7 +1776,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="69" spans="2:4">
+    <row r="69" spans="1:10">
       <c r="B69" s="4" t="s">
         <v>73</v>
       </c>
@@ -1778,7 +1787,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="70" spans="2:4">
+    <row r="70" spans="1:10">
       <c r="B70" s="4" t="s">
         <v>74</v>
       </c>
@@ -1789,7 +1798,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="2:4">
+    <row r="71" spans="1:10">
       <c r="B71" s="4" t="s">
         <v>75</v>
       </c>
@@ -1800,7 +1809,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="72" spans="2:4">
+    <row r="72" spans="1:10">
       <c r="B72" s="4" t="s">
         <v>76</v>
       </c>
@@ -1811,7 +1820,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="2:4">
+    <row r="73" spans="1:10">
       <c r="B73" s="4" t="s">
         <v>77</v>
       </c>
@@ -1822,7 +1831,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="74" spans="2:4">
+    <row r="74" spans="1:10">
       <c r="B74" s="4" t="s">
         <v>78</v>
       </c>
@@ -1833,7 +1842,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="75" spans="2:4">
+    <row r="75" spans="1:10">
       <c r="B75" s="4" t="s">
         <v>79</v>
       </c>
@@ -1844,7 +1853,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="2:4">
+    <row r="76" spans="1:10">
       <c r="B76" s="4" t="s">
         <v>80</v>
       </c>
@@ -1855,7 +1864,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="77" spans="2:4">
+    <row r="77" spans="1:10">
       <c r="B77" s="4" t="s">
         <v>81</v>
       </c>
@@ -1866,7 +1875,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="78" spans="2:4">
+    <row r="78" spans="1:10">
       <c r="B78" s="4" t="s">
         <v>82</v>
       </c>
@@ -1877,7 +1886,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="79" spans="2:4">
+    <row r="79" spans="1:10">
       <c r="B79" s="4" t="s">
         <v>83</v>
       </c>
@@ -1888,7 +1897,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:4">
+    <row r="80" spans="1:10">
       <c r="B80" s="4" t="s">
         <v>84</v>
       </c>
@@ -1899,7 +1908,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:10">
       <c r="B81" s="4" t="s">
         <v>85</v>
       </c>
@@ -1910,7 +1919,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:10">
       <c r="B82" s="4" t="s">
         <v>86</v>
       </c>
@@ -1921,7 +1930,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:10">
       <c r="B83" s="4" t="s">
         <v>87</v>
       </c>
@@ -1932,7 +1941,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:10">
       <c r="B84" s="4" t="s">
         <v>88</v>
       </c>
@@ -1943,7 +1952,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:10">
       <c r="B85" s="4" t="s">
         <v>89</v>
       </c>
@@ -1954,7 +1963,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:10">
       <c r="B86" s="4" t="s">
         <v>90</v>
       </c>
@@ -1965,7 +1974,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15.75" customHeight="1">
+    <row r="87" spans="1:10" customHeight="1" ht="15.75">
       <c r="B87" s="4" t="s">
         <v>91</v>
       </c>
@@ -1976,7 +1985,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15.75" customHeight="1">
+    <row r="88" spans="1:10" customHeight="1" ht="15.75">
       <c r="B88" s="4" t="s">
         <v>92</v>
       </c>
@@ -1987,7 +1996,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15.75" customHeight="1">
+    <row r="89" spans="1:10" customHeight="1" ht="15.75">
       <c r="B89" s="4" t="s">
         <v>93</v>
       </c>
@@ -1998,7 +2007,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:10">
       <c r="B90" s="4" t="s">
         <v>94</v>
       </c>
@@ -2009,7 +2018,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:10">
       <c r="A91" s="5" t="s">
         <v>95</v>
       </c>
@@ -2023,7 +2032,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:10">
       <c r="B92" s="5" t="s">
         <v>97</v>
       </c>
@@ -2034,7 +2043,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:10">
       <c r="B93" s="5" t="s">
         <v>98</v>
       </c>
@@ -2045,7 +2054,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:10">
       <c r="B94" s="5" t="s">
         <v>99</v>
       </c>
@@ -2056,7 +2065,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:10">
       <c r="B95" s="5" t="s">
         <v>100</v>
       </c>
@@ -2067,7 +2076,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:10">
       <c r="B96" s="5" t="s">
         <v>101</v>
       </c>
@@ -2078,7 +2087,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="97" spans="2:9">
+    <row r="97" spans="1:10">
       <c r="B97" s="5" t="s">
         <v>102</v>
       </c>
@@ -2089,7 +2098,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="98" spans="2:9">
+    <row r="98" spans="1:10">
       <c r="B98" s="5" t="s">
         <v>103</v>
       </c>
@@ -2100,7 +2109,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="99" spans="2:9">
+    <row r="99" spans="1:10">
       <c r="B99" s="5" t="s">
         <v>104</v>
       </c>
@@ -2111,7 +2120,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="100" spans="2:9">
+    <row r="100" spans="1:10">
       <c r="B100" s="5" t="s">
         <v>105</v>
       </c>
@@ -2122,7 +2131,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="101" spans="2:9">
+    <row r="101" spans="1:10">
       <c r="B101" s="5" t="s">
         <v>106</v>
       </c>
@@ -2142,7 +2151,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="102" spans="2:9">
+    <row r="102" spans="1:10">
       <c r="B102" s="5" t="s">
         <v>108</v>
       </c>
@@ -2153,7 +2162,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="103" spans="2:9">
+    <row r="103" spans="1:10">
       <c r="B103" s="5" t="s">
         <v>109</v>
       </c>
@@ -2164,7 +2173,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="104" spans="2:9">
+    <row r="104" spans="1:10">
       <c r="B104" s="5" t="s">
         <v>110</v>
       </c>
@@ -2175,7 +2184,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="105" spans="2:9">
+    <row r="105" spans="1:10">
       <c r="B105" s="5" t="s">
         <v>111</v>
       </c>
@@ -2186,7 +2195,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="106" spans="2:9">
+    <row r="106" spans="1:10">
       <c r="B106" s="5" t="s">
         <v>112</v>
       </c>
@@ -2197,7 +2206,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="107" spans="2:9">
+    <row r="107" spans="1:10">
       <c r="B107" s="5" t="s">
         <v>113</v>
       </c>
@@ -2208,7 +2217,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="108" spans="2:9">
+    <row r="108" spans="1:10">
       <c r="B108" s="5" t="s">
         <v>114</v>
       </c>
@@ -2219,7 +2228,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="109" spans="2:9">
+    <row r="109" spans="1:10">
       <c r="B109" s="5" t="s">
         <v>115</v>
       </c>
@@ -2230,7 +2239,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="110" spans="2:9">
+    <row r="110" spans="1:10">
       <c r="B110" s="5" t="s">
         <v>116</v>
       </c>
@@ -2241,7 +2250,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="111" spans="2:9" ht="15.75" customHeight="1">
+    <row r="111" spans="1:10" customHeight="1" ht="15.75">
       <c r="B111" s="5" t="s">
         <v>117</v>
       </c>
@@ -2252,7 +2261,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="112" spans="2:9" ht="15.75" customHeight="1">
+    <row r="112" spans="1:10" customHeight="1" ht="15.75">
       <c r="B112" s="5" t="s">
         <v>118</v>
       </c>
@@ -2263,7 +2272,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:10">
       <c r="B113" s="5" t="s">
         <v>119</v>
       </c>
@@ -2274,7 +2283,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:10">
       <c r="B114" s="5" t="s">
         <v>120</v>
       </c>
@@ -2285,7 +2294,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:10">
       <c r="B115" s="5" t="s">
         <v>121</v>
       </c>
@@ -2296,7 +2305,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:10">
       <c r="B116" s="5" t="s">
         <v>122</v>
       </c>
@@ -2307,7 +2316,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:10">
       <c r="B117" s="5" t="s">
         <v>123</v>
       </c>
@@ -2318,7 +2327,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:10">
       <c r="B118" s="5" t="s">
         <v>124</v>
       </c>
@@ -2329,7 +2338,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:10">
       <c r="B119" s="5" t="s">
         <v>125</v>
       </c>
@@ -2340,7 +2349,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:10">
       <c r="B120" s="5" t="s">
         <v>126</v>
       </c>
@@ -2360,7 +2369,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:10">
       <c r="B121" s="5" t="s">
         <v>127</v>
       </c>
@@ -2371,7 +2380,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="122" spans="1:8">
+    <row r="122" spans="1:10">
       <c r="B122" s="5" t="s">
         <v>128</v>
       </c>
@@ -2382,7 +2391,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="123" spans="1:8">
+    <row r="123" spans="1:10">
       <c r="A123" s="6" t="s">
         <v>129</v>
       </c>
@@ -2396,7 +2405,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="124" spans="1:8">
+    <row r="124" spans="1:10">
       <c r="B124" s="6" t="s">
         <v>131</v>
       </c>
@@ -2407,7 +2416,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:10">
       <c r="B125" s="6" t="s">
         <v>132</v>
       </c>
@@ -2418,7 +2427,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="126" spans="1:8">
+    <row r="126" spans="1:10">
       <c r="B126" s="6" t="s">
         <v>133</v>
       </c>
@@ -2429,7 +2438,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:10">
       <c r="B127" s="6" t="s">
         <v>134</v>
       </c>
@@ -2440,7 +2449,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:10">
       <c r="B128" s="6" t="s">
         <v>135</v>
       </c>
@@ -2451,7 +2460,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:10">
       <c r="B129" s="6" t="s">
         <v>136</v>
       </c>
@@ -2462,7 +2471,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:10">
       <c r="B130" s="6" t="s">
         <v>137</v>
       </c>
@@ -2473,7 +2482,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:10">
       <c r="B131" s="6" t="s">
         <v>138</v>
       </c>
@@ -2484,7 +2493,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:10">
       <c r="B132" s="6" t="s">
         <v>139</v>
       </c>
@@ -2495,7 +2504,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:10">
       <c r="B133" s="6" t="s">
         <v>140</v>
       </c>
@@ -2506,7 +2515,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="15.75" customHeight="1">
+    <row r="134" spans="1:10" customHeight="1" ht="15.75">
       <c r="B134" s="6" t="s">
         <v>141</v>
       </c>
@@ -2517,7 +2526,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="15.75" customHeight="1">
+    <row r="135" spans="1:10" customHeight="1" ht="15.75">
       <c r="B135" s="6" t="s">
         <v>142</v>
       </c>
@@ -2528,7 +2537,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="15.75" customHeight="1">
+    <row r="136" spans="1:10" customHeight="1" ht="15.75">
       <c r="B136" s="6" t="s">
         <v>143</v>
       </c>
@@ -2539,7 +2548,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="15.75" customHeight="1">
+    <row r="137" spans="1:10" customHeight="1" ht="15.75">
       <c r="B137" s="6" t="s">
         <v>144</v>
       </c>
@@ -2550,7 +2559,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:10">
       <c r="A138" s="7" t="s">
         <v>145</v>
       </c>
@@ -2564,7 +2573,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:10">
       <c r="B139" s="7" t="s">
         <v>147</v>
       </c>
@@ -2575,7 +2584,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:10">
       <c r="B140" s="7" t="s">
         <v>148</v>
       </c>
@@ -2586,7 +2595,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:10">
       <c r="B141" s="7" t="s">
         <v>149</v>
       </c>
@@ -2597,7 +2606,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:10">
       <c r="B142" s="7" t="s">
         <v>150</v>
       </c>
@@ -2608,7 +2617,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:10">
       <c r="B143" s="7" t="s">
         <v>151</v>
       </c>
@@ -2619,7 +2628,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:10">
       <c r="B144" s="7" t="s">
         <v>152</v>
       </c>
@@ -2630,7 +2639,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:10">
       <c r="B145" s="7" t="s">
         <v>153</v>
       </c>
@@ -2641,7 +2650,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:10">
       <c r="B146" s="7" t="s">
         <v>154</v>
       </c>
@@ -2652,7 +2661,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:10">
       <c r="B147" s="7" t="s">
         <v>155</v>
       </c>
@@ -2663,7 +2672,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:10">
       <c r="B148" s="7" t="s">
         <v>156</v>
       </c>
@@ -2674,7 +2683,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:10">
       <c r="B149" s="7" t="s">
         <v>157</v>
       </c>
@@ -2685,7 +2694,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:10">
       <c r="B150" s="7" t="s">
         <v>158</v>
       </c>
@@ -2696,7 +2705,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:10">
       <c r="B151" s="7" t="s">
         <v>159</v>
       </c>
@@ -2707,7 +2716,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:10">
       <c r="B152" s="7" t="s">
         <v>160</v>
       </c>
@@ -2718,7 +2727,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:10">
       <c r="B153" s="7" t="s">
         <v>161</v>
       </c>
@@ -2729,7 +2738,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:10">
       <c r="B154" s="7" t="s">
         <v>162</v>
       </c>
@@ -2740,7 +2749,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:10">
       <c r="B155" s="7" t="s">
         <v>163</v>
       </c>
@@ -2751,7 +2760,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:10">
       <c r="B156" s="7" t="s">
         <v>164</v>
       </c>
@@ -2762,7 +2771,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:10">
       <c r="B157" s="7" t="s">
         <v>165</v>
       </c>
@@ -2773,7 +2782,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:10">
       <c r="A158" s="2" t="s">
         <v>166</v>
       </c>
@@ -2787,7 +2796,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:10">
       <c r="B159" s="2" t="s">
         <v>168</v>
       </c>
@@ -2798,7 +2807,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:10">
       <c r="B160" s="2" t="s">
         <v>169</v>
       </c>
@@ -2809,7 +2818,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:10">
       <c r="B161" s="2" t="s">
         <v>170</v>
       </c>
@@ -2820,7 +2829,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:10">
       <c r="A162" s="8" t="s">
         <v>171</v>
       </c>
@@ -2834,7 +2843,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:10">
       <c r="B163" s="8" t="s">
         <v>173</v>
       </c>
@@ -2845,7 +2854,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:10">
       <c r="A164" s="9" t="s">
         <v>174</v>
       </c>
@@ -2859,7 +2868,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:10">
       <c r="A165" s="10" t="s">
         <v>176</v>
       </c>
@@ -2873,7 +2882,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:10">
       <c r="B166" s="10" t="s">
         <v>178</v>
       </c>
@@ -2884,7 +2893,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:10">
       <c r="B167" s="10" t="s">
         <v>179</v>
       </c>
@@ -2895,7 +2904,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:10">
       <c r="B168" s="10" t="s">
         <v>180</v>
       </c>
@@ -2906,31 +2915,40 @@
         <v>77</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:10">
       <c r="B169" s="10" t="s">
         <v>181</v>
       </c>
       <c r="C169" s="10">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="D169" s="10">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="B170" s="10" t="s">
-        <v>182</v>
+        <v>16</v>
       </c>
       <c r="C170" s="10">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="D170" s="10">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>